--- a/ig/ch-epr-fhir/StructureDefinition-ChAuditEventIti83Consumer.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ChAuditEventIti83Consumer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -508,7 +508,7 @@
     <t>Type of event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-event-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-event-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -544,7 +544,7 @@
     <t>Sub-type of event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -566,7 +566,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/AllSearchVS</t>
+    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/AllSearchVS|1.1.4</t>
   </si>
   <si>
     <t>AuditEvent.subtype:iti83</t>
@@ -776,7 +776,7 @@
     <t>An agent can be a person, an organization, software, device, or other actors that may be ascribed responsibility.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:type}
+    <t xml:space="preserve">value:type}
 </t>
   </si>
   <si>
@@ -854,7 +854,7 @@
     <t>The Participation type of the agent to the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participation-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/participation-role-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -893,7 +893,7 @@
     <t>What security role enabled the agent to participate in the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type|4.0.1</t>
   </si>
   <si>
     <t>.role</t>
@@ -909,7 +909,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(PractitionerRole|Practitioner|Organization|Device|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(PractitionerRole|4.0.1|Practitioner|4.0.1|Organization|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1004,7 +1004,7 @@
     <t>AuditEvent.agent.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1071,7 +1071,7 @@
     <t>Used when the event is about exporting/importing onto media.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/dicm-405-mediatype</t>
+    <t>http://hl7.org/fhir/ValueSet/dicm-405-mediatype|4.0.1</t>
   </si>
   <si>
     <t>.player.description.mediaType</t>
@@ -1630,7 +1630,7 @@
     <t>Code specifying the type of system that detected and recorded the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-source-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-source-type|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1686,7 +1686,7 @@
     <t>AuditEvent.entity.what</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1720,7 +1720,7 @@
     <t>Code for the entity type involved in the audit event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-entity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-entity-type|4.0.1</t>
   </si>
   <si>
     <t>[self::Act].code or role.player.code</t>
@@ -1750,7 +1750,7 @@
     <t>Code representing the role the entity played in the audit event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-role</t>
+    <t>http://hl7.org/fhir/ValueSet/object-role|4.0.1</t>
   </si>
   <si>
     <t>role.code (not sure what this would mean for an Act)</t>
@@ -1780,7 +1780,7 @@
     <t>Institutional policies for privacy and security may optionally fall under different accountability rules based on data life cycle. This provides a differentiating value for those cases.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|5.2.0</t>
+    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|4.0.1</t>
   </si>
   <si>
     <t>target of ObservationEvent[code="lifecycle"].value</t>
@@ -1810,7 +1810,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>.confidentialityCode</t>
@@ -2029,7 +2029,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -2126,7 +2126,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -2207,7 +2207,7 @@
     <t>AuditEvent.entity.what.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2952,7 +2952,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -13211,7 +13211,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>422</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>425</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>437</v>
       </c>
@@ -19831,7 +19831,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>485</v>
       </c>
@@ -36571,12 +36571,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP279">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
